--- a/data/sounds.xlsx
+++ b/data/sounds.xlsx
@@ -91,7 +91,7 @@
     <t>Velars</t>
   </si>
   <si>
-    <t>HaäāǟAeɛēEiɨīIoöōȫOuüūǖUʌVəɔɵɞɪɯʉɤɘʊʋɐɑɒɜъЪаАиИоОуУыЫьЬэЭæœʸˤʰʷ</t>
+    <t>HAEIOUaeiouÀÁÂÃÄÅÆÈÉÊËÌÍÎÏÒÓÔÕÖØÙÚÛÜàáâãäåæèéêëìíîïòóôõöøùúûüĀāĂăĄąĒēĔĕĖėĘęĚěĨĩĪīĬĭĮįİıŌōŎŏŐőŒœŨũŪūŬŭŮůŰűŲųƎƏƐƗƖƜƟơƠƯưƱƲǍǎǏǐǑǒǓǔǕǖǗǘǙǚǛǜǝǞǟǠǡǢǣǪǫǬǭǺǻǼǽǾǿȀȁȂȃȄȅȆȇȈȉȊȋȌȍȎȏȔȕȖȗȢȣȦȧȨȩȪȫȬȭȮȯȰȱȺɄɅɆɇɐɑɒɏɎɔɘəɚɛɜɝɞɤɨɩɪɯɰɵɶɷʉʊʌʏʚαεηιουωϊϋόύώάέήίЀЁЍАЕИОУЫЭЮЯаеиоуыэюяѐёєіїѝӐӑӒӓӔӕӖӗӘәӚӛӢӣӤӥӦӧӨөӪӫӬӭӮӯӰӱӸӹᴀᴁᴂᴇᴈᴉᴏᴐᴑᴒᴓᴔᴕᴖᴗᴜᴝᴞᴟᴥᴧᵫᵾᵿᵼᵻᶏᶐᶒᶓᶔᶕᶖᶗᶙḀḁḔḕḖḗḘḙḚḛḜḝḬḭḮḯṌṍṎṏṐṑṒṓṲṳṴṵṶṷṸṹṺṻẚẙẠạẢảẤấẦầẨẩẪẫẬậẮắẰằẲẳẴẵẶặẸẹẺẻẼẽẾếỀềỂểỄễỆệỈỉỊịỌọỎỏỐốỒồổỔỖỗỘộỚớỜờỞởỠỡỢợỤụỦủỨứỪừỬửỮữỰựὰάὲέὴήὶίὸόὺύὼώⱯꝊꝋꝌꝍꝎꝏꞶꞷꞜꞝ</t>
   </si>
   <si>
     <t>Vowels and features</t>
@@ -1265,9 +1265,7 @@
   <cols>
     <col min="1" max="1" width="84.8516" style="1" customWidth="1"/>
     <col min="2" max="2" width="40.1719" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.17188" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.17188" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.17188" style="1" customWidth="1"/>
+    <col min="3" max="5" width="9.17188" style="1" customWidth="1"/>
     <col min="6" max="256" width="8.85156" style="1" customWidth="1"/>
   </cols>
   <sheetData>

--- a/data/sounds.xlsx
+++ b/data/sounds.xlsx
@@ -1,17 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\starling-permutation-test-master\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23325" windowHeight="9990"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>PpBbɓɸβṗFfvⱱпПфФбБʘ</t>
   </si>
@@ -25,21 +33,12 @@
     <t>Fricatives</t>
   </si>
   <si>
-    <t>CcčɕᶚɟʒǯʓȡȶсçʝǀЦчЧ</t>
-  </si>
-  <si>
     <t>Affricates</t>
   </si>
   <si>
-    <t>TtDdɗṭþϑθðδʈɖǂтТдД</t>
-  </si>
-  <si>
     <t>Dentals</t>
   </si>
   <si>
-    <t>JjyYйЙеЕяЯюЮ</t>
-  </si>
-  <si>
     <t>Glides</t>
   </si>
   <si>
@@ -91,32 +90,28 @@
     <t>Velars</t>
   </si>
   <si>
+    <t>Vowels and features</t>
+  </si>
+  <si>
+    <t>YyJjйЙеЕяЯюЮ</t>
+  </si>
+  <si>
+    <t>TtDdɗṭþϑθðδʈɖȡȶǂтТдД</t>
+  </si>
+  <si>
     <t>HAEIOUaeiouÀÁÂÃÄÅÆÈÉÊËÌÍÎÏÒÓÔÕÖØÙÚÛÜàáâãäåæèéêëìíîïòóôõöøùúûüĀāĂăĄąĒēĔĕĖėĘęĚěĨĩĪīĬĭĮįİıŌōŎŏŐőŒœŨũŪūŬŭŮůŰűŲųƎƏƐƗƖƜƟơƠƯưƱƲǍǎǏǐǑǒǓǔǕǖǗǘǙǚǛǜǝǞǟǠǡǢǣǪǫǬǭǺǻǼǽǾǿȀȁȂȃȄȅȆȇȈȉȊȋȌȍȎȏȔȕȖȗȢȣȦȧȨȩȪȫȬȭȮȯȰȱȺɄɅɆɇɐɑɒɏɎɔɘəɚɛɜɝɞɤɨɩɪɯɰɵɶɷʉʊʌʏʚαεηιουωϊϋόύώάέήίЀЁЍАЕИОУЫЭЮЯаеиоуыэюяѐёєіїѝӐӑӒӓӔӕӖӗӘәӚӛӢӣӤӥӦӧӨөӪӫӬӭӮӯӰӱӸӹᴀᴁᴂᴇᴈᴉᴏᴐᴑᴒᴓᴔᴕᴖᴗᴜᴝᴞᴟᴥᴧᵫᵾᵿᵼᵻᶏᶐᶒᶓᶔᶕᶖᶗᶙḀḁḔḕḖḗḘḙḚḛḜḝḬḭḮḯṌṍṎṏṐṑṒṓṲṳṴṵṶṷṸṹṺṻẚẙẠạẢảẤấẦầẨẩẪẫẬậẮắẰằẲẳẴẵẶặẸẹẺẻẼẽẾếỀềỂểỄễỆệỈỉỊịỌọỎỏỐốỒồổỔỖỗỘộỚớỜờỞởỠỡỢợỤụỦủỨứỪừỬửỮữỰựὰάὲέὴήὶίὸόὺύὼώⱯꝊꝋꝌꝍꝎꝏꞶꞷꞜꞝ</t>
   </si>
   <si>
-    <t>Vowels and features</t>
+    <t>CcČčɕᶚɟʒǯʓсçʝǀЦчЧ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="14"/>
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
@@ -160,23 +155,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -185,24 +172,85 @@
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office Theme">
       <a:dk1>
@@ -404,7 +452,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -423,7 +471,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -453,7 +501,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -479,7 +527,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -505,7 +553,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -531,7 +579,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -557,7 +605,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -583,7 +631,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -609,7 +657,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -635,7 +683,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -661,7 +709,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -674,9 +722,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -693,7 +747,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -712,7 +766,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -738,7 +792,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -764,7 +818,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -790,7 +844,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -816,7 +870,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -842,7 +896,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -868,7 +922,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -894,7 +948,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -920,7 +974,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -946,7 +1000,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -959,9 +1013,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -975,7 +1035,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -994,7 +1054,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1024,7 +1084,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1050,7 +1110,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1076,7 +1136,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1102,7 +1162,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1128,7 +1188,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1154,7 +1214,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1180,7 +1240,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1206,7 +1266,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1232,7 +1292,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1245,179 +1305,188 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IV14"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="20.25" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="84.8516" style="1" customWidth="1"/>
-    <col min="2" max="2" width="40.1719" style="1" customWidth="1"/>
-    <col min="3" max="5" width="9.17188" style="1" customWidth="1"/>
-    <col min="6" max="256" width="8.85156" style="1" customWidth="1"/>
+    <col min="1" max="1" width="84.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="40.140625" style="1" customWidth="1"/>
+    <col min="3" max="5" width="9.140625" style="1" customWidth="1"/>
+    <col min="6" max="256" width="8.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17.05" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" ht="16.4" customHeight="1">
-      <c r="A2" t="s" s="2">
+    <row r="2" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s" s="2">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" ht="16.4" customHeight="1">
-      <c r="A3" t="s" s="2">
+    <row r="3" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="B3" t="s" s="2">
-        <v>5</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" ht="16.4" customHeight="1">
-      <c r="A4" t="s" s="2">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>7</v>
+    <row r="4" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" ht="16" customHeight="1">
-      <c r="A5" t="s" s="2">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s" s="2">
-        <v>9</v>
+    <row r="5" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" ht="16" customHeight="1">
-      <c r="A6" t="s" s="2">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s" s="2">
-        <v>11</v>
+    <row r="6" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" ht="16" customHeight="1">
-      <c r="A7" t="s" s="2">
-        <v>12</v>
-      </c>
-      <c r="B7" t="s" s="2">
-        <v>13</v>
+    <row r="7" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" ht="16" customHeight="1">
-      <c r="A8" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="B8" t="s" s="2">
-        <v>15</v>
+    <row r="8" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" ht="16.4" customHeight="1">
-      <c r="A9" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="B9" t="s" s="2">
-        <v>17</v>
+    <row r="9" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" ht="16" customHeight="1">
-      <c r="A10" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="B10" t="s" s="2">
-        <v>19</v>
+    <row r="10" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
     </row>
-    <row r="11" ht="16.4" customHeight="1">
-      <c r="A11" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="B11" t="s" s="2">
-        <v>21</v>
+    <row r="11" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
     </row>
-    <row r="12" ht="16" customHeight="1">
-      <c r="A12" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s" s="2">
-        <v>23</v>
+    <row r="12" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
     </row>
-    <row r="13" ht="16.4" customHeight="1">
-      <c r="A13" t="s" s="2">
-        <v>24</v>
-      </c>
-      <c r="B13" t="s" s="2">
-        <v>25</v>
+    <row r="13" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
     </row>
-    <row r="14" ht="16.4" customHeight="1">
-      <c r="A14" t="s" s="2">
+    <row r="14" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B14" t="s" s="2">
-        <v>27</v>
+      <c r="B14" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -1425,7 +1494,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/data/sounds.xlsx
+++ b/data/sounds.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\starling-permutation-test-master\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arseny\go\src\starling-permutation-test\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23325" windowHeight="9990"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23328" windowHeight="9996"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -99,16 +99,16 @@
     <t>TtDdɗṭþϑθðδʈɖȡȶǂтТдД</t>
   </si>
   <si>
-    <t>HAEIOUaeiouÀÁÂÃÄÅÆÈÉÊËÌÍÎÏÒÓÔÕÖØÙÚÛÜàáâãäåæèéêëìíîïòóôõöøùúûüĀāĂăĄąĒēĔĕĖėĘęĚěĨĩĪīĬĭĮįİıŌōŎŏŐőŒœŨũŪūŬŭŮůŰűŲųƎƏƐƗƖƜƟơƠƯưƱƲǍǎǏǐǑǒǓǔǕǖǗǘǙǚǛǜǝǞǟǠǡǢǣǪǫǬǭǺǻǼǽǾǿȀȁȂȃȄȅȆȇȈȉȊȋȌȍȎȏȔȕȖȗȢȣȦȧȨȩȪȫȬȭȮȯȰȱȺɄɅɆɇɐɑɒɏɎɔɘəɚɛɜɝɞɤɨɩɪɯɰɵɶɷʉʊʌʏʚαεηιουωϊϋόύώάέήίЀЁЍАЕИОУЫЭЮЯаеиоуыэюяѐёєіїѝӐӑӒӓӔӕӖӗӘәӚӛӢӣӤӥӦӧӨөӪӫӬӭӮӯӰӱӸӹᴀᴁᴂᴇᴈᴉᴏᴐᴑᴒᴓᴔᴕᴖᴗᴜᴝᴞᴟᴥᴧᵫᵾᵿᵼᵻᶏᶐᶒᶓᶔᶕᶖᶗᶙḀḁḔḕḖḗḘḙḚḛḜḝḬḭḮḯṌṍṎṏṐṑṒṓṲṳṴṵṶṷṸṹṺṻẚẙẠạẢảẤấẦầẨẩẪẫẬậẮắẰằẲẳẴẵẶặẸẹẺẻẼẽẾếỀềỂểỄễỆệỈỉỊịỌọỎỏỐốỒồổỔỖỗỘộỚớỜờỞởỠỡỢợỤụỦủỨứỪừỬửỮữỰựὰάὲέὴήὶίὸόὺύὼώⱯꝊꝋꝌꝍꝎꝏꞶꞷꞜꞝ</t>
-  </si>
-  <si>
     <t>CcČčɕᶚɟʒǯʓсçʝǀЦчЧ</t>
+  </si>
+  <si>
+    <t>HAEIOUaeiouÀÁÂÃÄÅÆÈÉÊËÌÍÎÏÒÓÔÕÖØÙÚÛÜàáâãäåæèéêëìíîïòóôõöøùúûüĀāĂăĄąĒēĔĕĖėĘęĚěĨĩĪīĬĭĮįİıŌōŎŏŐőŒœŨũŪūŬŭŮůŰűŲųƎƏƐƗƖƜƟơƠƯưƱƲǍǎǏǐǑǒǓǔǕǖǗǘǙǚǛǜǝǞǟǠǡǢǣǪǫǬǭǺǻǼǽǾǿȀȁȂȃȄȅȆȇȈȉȊȋȌȍȎȏȔȕȖȗȢȣȦȧȨȩȪȫȬȭȮȯȰȱȺɄɅɆɇɐɑɒɏɎɔɘəɚɛɜɝɞɤɨɩɪɯɰɵɶɷʉʊʌʏʚαεηιουωϊϋόύώάέήίЀЁЍАЕИОУЫЭЮЯаеиоуыэюяѐёєіїѝӐӑӒӓӔӕӖӗӘәӚӛӢӣӤӥӦӧӨөӪӫӬӭӮӯӰӱӸӹᴀᴁᴂᴇᴈᴉᴏᴐᴑᴒᴓᴔᴕᴖᴗᴜᴝᴞᴟᴥᴧᵫᵾᵿᵼᵻᶏᶐᶒᶓᶔᶕᶖᶗᶙḀḁḔḕḖḗḘḙḚḛḜḝḬḭḮḯṌṍṎṏṐṑṒṓṲṳṴṵṶṷṸṹṺṻẚẙẠạẢảẤấẦầẨẩẪẫẬậẮắẰằẲẳẴẵẶặẸẹẺẻẼẽẾếỀềỂểỄễỆệỈỉỊịỌọỎỏỐốỒồổỔỖỗỘộỚớỜờỞởỠỡỢợỤụỦủỨứỪừỬửỮữỰựὰάὲέὴήὶίὸόὺύὼώⱯꝊꝋꝌꝍꝎꝏꞶꞷꞜꞝˈ ː</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -166,7 +166,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
@@ -1327,18 +1327,18 @@
   <dimension ref="A1:IV14"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="84.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="40.140625" style="1" customWidth="1"/>
-    <col min="3" max="5" width="9.140625" style="1" customWidth="1"/>
-    <col min="6" max="256" width="8.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="84.88671875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="40.109375" style="1" customWidth="1"/>
+    <col min="3" max="5" width="9.109375" style="1" customWidth="1"/>
+    <col min="6" max="256" width="8.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1349,7 +1349,7 @@
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1360,9 +1360,9 @@
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>4</v>
@@ -1371,7 +1371,7 @@
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>25</v>
       </c>
@@ -1382,7 +1382,7 @@
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>24</v>
       </c>
@@ -1393,7 +1393,7 @@
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
@@ -1404,7 +1404,7 @@
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
@@ -1415,7 +1415,7 @@
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
@@ -1426,7 +1426,7 @@
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
@@ -1437,7 +1437,7 @@
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>15</v>
       </c>
@@ -1448,7 +1448,7 @@
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
     </row>
-    <row r="11" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>17</v>
       </c>
@@ -1459,7 +1459,7 @@
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
     </row>
-    <row r="12" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>19</v>
       </c>
@@ -1470,7 +1470,7 @@
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
     </row>
-    <row r="13" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>21</v>
       </c>
@@ -1481,9 +1481,9 @@
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
     </row>
-    <row r="14" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>23</v>
